--- a/medicine/Enfance/Quentin_Blake/Quentin_Blake.xlsx
+++ b/medicine/Enfance/Quentin_Blake/Quentin_Blake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quentin Blake, né le 16 décembre 1932 à Sidcup dans la banlieue de Londres, est un illustrateur et écrivain britannique, principalement connu pour ses dessins dans les livres pour enfants de Roald Dahl.
 </t>
@@ -513,57 +525,99 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Né en 1932 à Sidcup dans le Kent, il est évacué dans l'ouest du pays durant la guerre. Il va à la Chislehurst and Sidcup Grammar School où son professeur d'anglais, J H Walsh, l'influence dans son ambition de s'impliquer dans la littérature. Son premier dessin publié l'est dans le magazine satirique Punch lorsqu'il a 16 ans. Il étudie au Downing College à Cambridge, à l'université de Londres, au Chelsea College of Art and Design et à l'Institute of Education. Il a été professeur d'anglais au Lycée français Charles-de-Gaulle dans les années 1960.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1932 à Sidcup dans le Kent, il est évacué dans l'ouest du pays durant la guerre. Il va à la Chislehurst and Sidcup Grammar School où son professeur d'anglais, J H Walsh, l'influence dans son ambition de s'impliquer dans la littérature. Son premier dessin publié l'est dans le magazine satirique Punch lorsqu'il a 16 ans. Il étudie au Downing College à Cambridge, à l'université de Londres, au Chelsea College of Art and Design et à l'Institute of Education. Il a été professeur d'anglais au Lycée français Charles-de-Gaulle dans les années 1960.
 Il travaille pendant plus de vingt ans au Royal College of Art où il est directeur du département illustration de 1978 à 1986.
-Carrière
-En 1961, il illustre The Wonderful Button d'Evan Hunter, publié par Abelard-Schuman.
-Il gagne une réputation d'illustrateur plein d'humour par des collaborations avec Joan Aiken, Elizabeth Bowen, Roald Dahl[1], Nils-Olof Franzén, William Steig...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1961, il illustre The Wonderful Button d'Evan Hunter, publié par Abelard-Schuman.
+Il gagne une réputation d'illustrateur plein d'humour par des collaborations avec Joan Aiken, Elizabeth Bowen, Roald Dahl, Nils-Olof Franzén, William Steig...
 Ses dessins sont caractérisés par des traits à l'encre, rehaussés de grandes touches à l'aquarelle.
-Il reçoit plusieurs distinctions aux différentes manifestations de la Foire du livre de jeunesse de Bologne (Italie) : en 1969, il reçoit la "Mention" Prix Critique en herbe[2] pour Patrick ; en 1996, il est lauréat du Fiction Children pour Clown[3] ; puis, en 2000, il reçoit la "Mention" Introducing Art to Children[4], pour Dessiner : une méthode pas comme les autres !, réalisé avec John Cassidy.
+Il reçoit plusieurs distinctions aux différentes manifestations de la Foire du livre de jeunesse de Bologne (Italie) : en 1969, il reçoit la "Mention" Prix Critique en herbe pour Patrick ; en 1996, il est lauréat du Fiction Children pour Clown ; puis, en 2000, il reçoit la "Mention" Introducing Art to Children, pour Dessiner : une méthode pas comme les autres !, réalisé avec John Cassidy.
 Il est devenu en 1999 le premier Ambassadeur-Lauréat du livre pour enfants, fonction soutenue par le gouvernement britannique et destinée à promouvoir les livres pour la jeunesse.
 En 2002, il est lauréat d'un prix international : le Prix Hans Christian Andersen d'Illustration.
 En 2013, il a été nommé Sir Quentin Blake par la reine Élisabeth II.
 En mars 2014, il a été nommé Chevalier de la Légion d'honneur lors d'une cérémonie à l'Institut français de Londres.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[5].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Quentin_Blake</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "Mention" Prix Critique en herbe[2], Foire du livre de jeunesse de Bologne 1969 pour Patrick
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Mention" Prix Critique en herbe, Foire du livre de jeunesse de Bologne 1969 pour Patrick
 Médaille Kate-Greenaway (1980) pour Mr Magnolia
 Royal Designers for Industry (1981)
 Pinceau d'argent (nl) (1985) pour Danse, danse !
 Nestlé Smarties Book Prize (en) (1990)
- Fiction Children[3], Foire du livre de jeunesse de Bologne 1996 pour Clown
+ Fiction Children, Foire du livre de jeunesse de Bologne 1996 pour Clown
 Children's Laureate (1999)
-  "Mention" Introducing Art to Children[4], Foire du livre de jeunesse de Bologne 2000 pour Dessiner : une méthode pas comme les autres !, réalisé avec John Cassidy.
+  "Mention" Introducing Art to Children, Foire du livre de jeunesse de Bologne 2000 pour Dessiner : une méthode pas comme les autres !, réalisé avec John Cassidy.
 Prix Hans Christian Andersen d'illustration (2002)
 Commandeur de l'ordre de l'Empire britannique (2004)
 Prix Prince Philip Designers (2011)
@@ -572,41 +626,84 @@
 Compagnon de la Royal Society of Literature
 Fellows of Chartered Society of Designers
 Eleanor Farjeon Award (en)
- Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée, de 2019 à 2023[5]
-Décorations
- Chevalier de la Légion d'honneur (2014).
+ Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée, de 2019 à 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2014).
  Chevalier de l'ordre des Arts et des Lettres.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Quentin_Blake</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums personnels
-en anglais
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums personnels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>en anglais</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patrick (1968)
 Jack and Nancy (1969)
 Angelo (1970)
@@ -642,19 +739,96 @@
 Angel Pavement (2004)
 You're Only Young Twice (2008)
 Daddy Lost his Head (2009)
-en français
-Armeline Fourchedrue
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums personnels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>en français</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Armeline Fourchedrue
 Les Cacatoès
 Clown
 Le bateau vert
 Danse, danse !, Gallimard, 1984
 Les fabuleuses poches d’Angélique Brioche
 La Tête ailleurs (Éditions Circonflexe, 2008)  (ISBN 978-2-87-833455-5)
-Les Trois Petits Coquins[6], illustrations Emma Chichester Clark, Ed. Gallimard jeunesse (2017)
+Les Trois Petits Coquins, illustrations Emma Chichester Clark, Ed. Gallimard jeunesse (2017)
 Il est par ailleurs coauteur, avec John Cassidy, d'une méthode de dessin :
-Dessiner, une méthode pas comme les autres ! (Nathan)  (ISBN 978-2-09-279084-7)
-Illustrateur
-Livres de Roald Dahl
+Dessiner, une méthode pas comme les autres ! (Nathan)  (ISBN 978-2-09-279084-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Livres de Roald Dahl</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 James et la grosse pêche (James and the Giant Peach, 1961)
 Charlie et la Chocolaterie (Charlie and the Chocolate Factory, 1964)
 Le Doigt magique (The Magic Finger, 1966)
@@ -668,18 +842,125 @@
 Un Conte peut en cacher un autre (Revolting Rhymes, 1982)
 Sacrées Sorcières (The Witches, 1983)
 La Girafe, le pélican et moi (The Girafe and the Pelly and Me, 1985)
-Matilda (1988), puis réédition de 2019 avec de nouvelles illustrations[7]
+Matilda (1988), puis réédition de 2019 avec de nouvelles illustrations
 Un amour de tortue (Esio Trot, 1990)
 Le Rétrovicaire de Nibbleswicke (The Vicar of Nibbleswicke, 1991)
-Autres livres
-The Wonderful Button d'Evan Hunter (Abelard-Schuman, 1961)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Wonderful Button d'Evan Hunter (Abelard-Schuman, 1961)
 Le jour où je me suis déguisé en fille (The Boy in the Dress (2008)) de David Walliams, 2010
-Monsieur Kipu (Mr Stink (2010)) de David Walliams, 2012 - Prix Tam-Tam 2014[8]
-Trois petites chouettes ((it) Fitastrocca di Natale), texte de Emanuele Luzzati, Gallimard Jeunesse, 2014 « Une comptine écrite par le dessinateur italien Emanuele Luzzati, et retrouvée parmi ses œuvres papier[9] ». Traduit en anglais sous le titre Three little owls. 
-Pochette d'album
-Illustration de la pochette de l'album The Colour In Anything de l'artiste anglais James Blake sorti le 6 mai 2016
-Autres œuvres
-Illustrations pour la nouvelle maternité du CHU d'Angers 2011</t>
+Monsieur Kipu (Mr Stink (2010)) de David Walliams, 2012 - Prix Tam-Tam 2014
+Trois petites chouettes ((it) Fitastrocca di Natale), texte de Emanuele Luzzati, Gallimard Jeunesse, 2014 « Une comptine écrite par le dessinateur italien Emanuele Luzzati, et retrouvée parmi ses œuvres papier ». Traduit en anglais sous le titre Three little owls. </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pochette d'album</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Illustration de la pochette de l'album The Colour In Anything de l'artiste anglais James Blake sorti le 6 mai 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quentin_Blake</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres œuvres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Illustrations pour la nouvelle maternité du CHU d'Angers 2011</t>
         </is>
       </c>
     </row>
